--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\OneDrive\Ambiente de Trabalho\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B307EAC-314A-4D96-A7E7-E5DF11DDF695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CEBB64-A1EC-4AA2-B5AC-832C8009801E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Task Description</t>
   </si>
@@ -55,13 +55,30 @@
   </si>
   <si>
     <t>Final Delivarable</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>1º functionality</t>
+  </si>
+  <si>
+    <t>Guilherme
+Joana
+Leticia</t>
+  </si>
+  <si>
+    <t>2º functionality</t>
+  </si>
+  <si>
+    <t>Samuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +89,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -113,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -292,52 +301,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,88 +651,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F10"/>
+  <dimension ref="C2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="3:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="3:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="3:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="3:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="12" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Universidade\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CEBB64-A1EC-4AA2-B5AC-832C8009801E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D4F57-D035-443A-A19E-A49B50232EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Task Description</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Samuel</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -344,6 +347,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -361,15 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,46 +670,50 @@
   <sheetData>
     <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
@@ -722,7 +729,9 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
@@ -750,7 +759,9 @@
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Universidade\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\OneDrive\Ambiente de Trabalho\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D4F57-D035-443A-A19E-A49B50232EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B8D67-C74C-426D-88D5-97A387867873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Task Description</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Guilherme                 Leticia                         Joana</t>
   </si>
 </sst>
 </file>
@@ -656,20 +659,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
@@ -683,13 +686,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="15"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -701,7 +704,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -715,7 +718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,7 +728,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -735,7 +738,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
@@ -745,17 +748,17 @@
       <c r="E9" s="6"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -765,7 +768,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\OneDrive\Ambiente de Trabalho\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B8D67-C74C-426D-88D5-97A387867873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A491A0F6-3541-42A6-AB7E-F9F5D72D3A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Task Description</t>
   </si>
@@ -77,14 +77,17 @@
     <t>X</t>
   </si>
   <si>
-    <t>Guilherme                 Leticia                         Joana</t>
+    <t>Guilherme                 Leticia                         Joana                            Samuel</t>
+  </si>
+  <si>
+    <t>Guilherme                 Samuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +105,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -324,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,6 +387,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,22 +671,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F12"/>
+  <dimension ref="C2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
@@ -686,13 +700,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="15"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -704,7 +718,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -718,7 +732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -727,8 +741,9 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="3:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,27 +753,27 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:10" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -768,7 +783,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
@@ -784,5 +799,6 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\Universidade\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68D4F57-D035-443A-A19E-A49B50232EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912792F0-BD09-4290-8531-B526BFFB4E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Task Description</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Guilherme                   Joana</t>
   </si>
 </sst>
 </file>
@@ -656,20 +659,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
@@ -683,13 +686,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="15"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -701,7 +704,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -715,7 +718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -725,7 +728,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -735,27 +738,27 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -765,7 +768,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\OneDrive\Ambiente de Trabalho\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B8D67-C74C-426D-88D5-97A387867873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8005916E-48CE-42D5-9226-99DF81C8C5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Task Description</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>Guilherme                 Leticia                         Joana</t>
+  </si>
+  <si>
+    <t>Samuel
+Joana</t>
   </si>
 </sst>
 </file>
@@ -659,20 +663,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
@@ -686,13 +690,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="15"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -702,9 +706,11 @@
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -718,7 +724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -728,7 +734,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,7 +744,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
@@ -748,7 +754,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -758,17 +764,19 @@
       <c r="E10" s="6"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\OneDrive\Ambiente de Trabalho\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762B8D67-C74C-426D-88D5-97A387867873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C7895-3964-4CED-B9D1-1DAE89D85C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="552" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Task Description</t>
   </si>
@@ -78,13 +78,16 @@
   </si>
   <si>
     <t>Guilherme                 Leticia                         Joana</t>
+  </si>
+  <si>
+    <t>Leticia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +105,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -324,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,6 +388,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F12"/>
+  <dimension ref="C2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,8 +683,8 @@
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="12" t="s">
         <v>0</v>
       </c>
@@ -686,13 +698,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="15"/>
       <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -704,7 +716,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:9" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -718,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -728,7 +740,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,27 +750,32 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="3:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -768,7 +785,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
@@ -784,5 +801,6 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912792F0-BD09-4290-8531-B526BFFB4E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4734CD66-D07E-4409-9BD1-81348FF4EAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Task Description</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Guilherme                   Joana</t>
+  </si>
+  <si>
+    <t>Samuel                        Joana</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4734CD66-D07E-4409-9BD1-81348FF4EAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40B4AED-C964-4E44-A261-A727814F300C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Task Description</t>
   </si>
@@ -77,10 +77,13 @@
     <t>X</t>
   </si>
   <si>
-    <t>Guilherme                   Joana</t>
-  </si>
-  <si>
     <t>Samuel                        Joana</t>
+  </si>
+  <si>
+    <t>Guilherme                   Joana                        Leticia</t>
+  </si>
+  <si>
+    <t>Leticia</t>
   </si>
 </sst>
 </file>
@@ -663,7 +666,7 @@
   <dimension ref="C2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,9 +749,11 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
@@ -756,9 +761,11 @@
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="3:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -766,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\Faculdade\3ºano\1º Semestre\ES\1ºfase\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4734CD66-D07E-4409-9BD1-81348FF4EAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F5693-FA84-4E1D-A91C-EBA93D0710E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Task Description</t>
   </si>
@@ -77,10 +77,17 @@
     <t>X</t>
   </si>
   <si>
-    <t>Guilherme                   Joana</t>
-  </si>
-  <si>
-    <t>Samuel                        Joana</t>
+    <t>Guilherme
+Leticia
+Joana</t>
+  </si>
+  <si>
+    <t>Samuel
+Joana</t>
+  </si>
+  <si>
+    <t>Guilherme
+Leticia</t>
   </si>
 </sst>
 </file>
@@ -131,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -311,6 +318,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -318,16 +338,40 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -356,12 +400,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,6 +417,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,40 +712,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C3" s="12" t="s">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -707,21 +757,21 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -731,7 +781,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -741,27 +791,31 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -771,7 +825,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9764F712-5CB8-401E-A8E7-6D4AF9B4F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3428A05-5FDA-4ADC-90FE-D6615538AF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Task Description</t>
   </si>
@@ -79,13 +79,42 @@
   <si>
     <t>Samuel
 Joana</t>
+  </si>
+  <si>
+    <t>Guilherme                               Samuel
+Joana
+Leticia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guilherme                            Samuel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Joana
+Leticia</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +132,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -325,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -377,6 +413,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,7 +700,7 @@
   <dimension ref="C2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,19 +783,21 @@
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
+      <c r="D10" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>12</v>
@@ -771,7 +812,9 @@
         <v>16</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
@@ -789,5 +832,6 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3428A05-5FDA-4ADC-90FE-D6615538AF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C02B680-F10A-4940-A6C0-DB5C056C1163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Task Description</t>
   </si>
@@ -86,28 +86,17 @@
 Leticia</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guilherme                            Samuel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>not done because of reasons explained in the report</t>
+  </si>
+  <si>
+    <t>Guilherme                Samuel
 Joana
 Leticia</t>
-    </r>
+  </si>
+  <si>
+    <t>Guilherme                            Samuel
+Joana
+Leticia</t>
   </si>
 </sst>
 </file>
@@ -361,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -396,6 +385,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,8 +406,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F12"/>
+  <dimension ref="C2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,28 +703,28 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
+    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="3:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -744,7 +736,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:6" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -758,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,7 +760,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,50 +769,57 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="3:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
+      <c r="E10" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disnoca\Documents\Universidade\ES\GantProject\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\OneDrive\Ambiente de Trabalho\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C02B680-F10A-4940-A6C0-DB5C056C1163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186383AC-F87F-4126-B478-372EA1A79B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Task Description</t>
   </si>
@@ -97,6 +97,9 @@
     <t>Guilherme                            Samuel
 Joana
 Leticia</t>
+  </si>
+  <si>
+    <t>Leticia</t>
   </si>
 </sst>
 </file>
@@ -388,6 +391,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,9 +411,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,40 +694,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="13" t="s">
+    <row r="2" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="3:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="3:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -736,7 +739,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
@@ -750,17 +753,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="3:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,11 +776,11 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
@@ -787,7 +794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -799,7 +806,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="3:7" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
@@ -813,7 +820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>

--- a/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
+++ b/Scrum/phase 2/Sprint 4/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letic\OneDrive\Ambiente de Trabalho\ES\ES_gantProject\Scrum\phase 2\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186383AC-F87F-4126-B478-372EA1A79B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16886F4D-0F18-4FF6-A2B5-CE12686E9E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Task Description</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Leticia</t>
+  </si>
+  <si>
+    <t>Samuel                           Leticia                     Guilherme                      Joana</t>
   </si>
 </sst>
 </file>
@@ -694,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +740,9 @@
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="3:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
@@ -780,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="3:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
@@ -794,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -804,7 +809,9 @@
       <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="3:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
@@ -820,15 +827,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:7" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
